--- a/employee_records.xlsx
+++ b/employee_records.xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2265" yWindow="3330" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,11 +52,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,100 +422,146 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
+  <cols>
+    <col width="27.28515625" customWidth="1" min="3" max="3"/>
+    <col width="22.7109375" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>員工編號</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>員工姓名</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>JPG檔案</t>
+          <t>image</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>NPY檔案</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Face Embedding</t>
+          <t>npyload</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>joseph</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>joseph.jpg</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>joseph.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>蔡英文</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>蔡英文.jpg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>蔡英文.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>陳時中</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>陳時中.jpg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>陳時中.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LL.jpg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LL.npy</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Ly</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>photos/jpg/30_Ly.jpg</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>photos/npy/30_Ly.npy</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[-9.97268707e-02  8.81554782e-02  1.20640010e-01 -3.06948740e-02
- -1.07174031e-01 -3.37423310e-02 -7.53647536e-02 -8.94335583e-02
-  1.72412679e-01 -1.58652052e-01  2.62853771e-01  3.30110528e-02
- -1.59262374e-01 -4.18578684e-02 -6.74352422e-02  2.40344435e-01
- -1.88586652e-01 -1.21259384e-01 -4.29058038e-02  2.59857550e-02
-  6.83644488e-02 -2.34654341e-02  7.33627155e-02  3.44168246e-02
- -1.20408908e-01 -3.67081463e-01 -1.09490640e-01 -9.16822627e-02
- -2.35220231e-02 -1.59348696e-02 -5.88748492e-02  7.41728395e-03
- -1.65619761e-01 -1.63221657e-02  4.58355993e-03  1.04191400e-01
- -8.50719810e-02 -6.27176911e-02  1.87832773e-01 -1.21907992e-02
- -2.56011248e-01  4.55652028e-02  4.55567762e-02  1.99449480e-01
-  1.61054358e-01  3.34517434e-02  9.76946726e-02 -1.36794597e-01
-  1.06356323e-01 -1.88910365e-01  4.60445285e-02  1.08737104e-01
-  1.14646643e-01  7.31979460e-02  1.73652023e-02 -8.79661441e-02
-  6.69314265e-02  1.13543227e-01 -8.86191949e-02  1.89582780e-02
-  1.01810232e-01 -8.82523954e-02 -4.01030257e-02 -3.37232798e-02
-  2.05207273e-01  8.34353268e-02 -1.20529354e-01 -1.70586497e-01
-  1.02375716e-01 -1.41107410e-01 -9.72951055e-02  6.07437529e-02
- -1.46251187e-01 -2.03391612e-01 -3.06600034e-01 -1.80967748e-02
-  3.99702311e-01  1.16127357e-01 -1.65850639e-01  3.64349633e-02
- -5.91095984e-02  1.02635473e-03  6.93684965e-02  1.92991391e-01
- -1.21328793e-02  2.80719399e-02 -1.29073247e-01  1.23353004e-02
-  2.23433584e-01 -1.11917913e-01  2.10956968e-02  2.24912837e-01
-  4.37945947e-02  9.90849808e-02 -3.97364162e-02  2.82772705e-02
- -6.91777915e-02  6.30641356e-02 -1.06339082e-01 -2.02283263e-04
-  1.93794817e-02  3.52117755e-02 -4.13561910e-02  4.22559306e-02
- -1.72139406e-01  1.24098420e-01 -3.72766331e-02  3.28216329e-02
-  5.19046858e-02  2.48966962e-02 -1.23695061e-01 -1.08146980e-01
-  1.07728973e-01 -1.77047327e-01  1.47563174e-01  2.34370351e-01
-  4.18151058e-02  1.02215551e-01  1.69702768e-01  8.55158269e-02
- -3.21531296e-03 -2.36736685e-02 -2.41907388e-01 -3.62380035e-03
-  8.53156745e-02 -5.30093312e-02  4.76565361e-02  9.50083509e-03]</t>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ly.jpg</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ly.npy</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>